--- a/docs/ST4/ST4_15.08.2024_output.xlsx
+++ b/docs/ST4/ST4_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1259 +505,1491 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731440555.4792526</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731440556.2294302</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440555.4792526.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440556.2294302.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.42</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731440560.4989173</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731440561.0094624</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440560.4989173.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440561.0094624.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.95</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.13</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731440561.3119693</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731440562.598722</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440561.3119693.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440562.598722.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.48</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731440564.1873908</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731440565.494596</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440564.1873908.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440565.494596.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.68</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731440571.9902515</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731440572.0663931</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440571.9902515.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440572.0663931.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>276.84</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731440573.174858</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731440573.8865836</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440573.174858.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440573.8865836.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.42</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.24</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731440577.9735966</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731440578.459868</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440577.9735966.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440578.459868.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.95</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.13</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731440578.7454832</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731440579.8304882</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440578.7454832.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440579.8304882.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.53</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.48</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731440581.2804668</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731440582.1205666</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440581.2804668.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440582.1205666.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.68</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731440587.6191733</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731440587.666202</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440587.6191733.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440587.666202.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>276.84</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.03</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731440588.8767881</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731440589.4778526</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440588.8767881.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440589.4778526.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>279.22</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.89</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3300000000000409</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731440593.7588217</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731440593.8072932</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440593.7588217.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440593.8072932.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.83</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.86</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731440594.4425485</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731440594.9655204</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440594.4425485.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440594.9655204.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.6</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.59</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.01000000000004775</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731440595.3640077</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731440596.5664766</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440595.3640077.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440596.5664766.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>277.98</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731440597.955446</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731440598.241972</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440597.955446.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440598.241972.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>277.76</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>277.88</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731440598.5134444</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731440598.992438</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440598.5134444.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440598.992438.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>277.66</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>277.69</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.02999999999997272</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731440602.175683</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731440603.589277</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440602.175683.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440603.589277.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>277.68</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>278.12</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731440604.1281335</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731440605.0715132</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440604.1281335.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440605.0715132.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>277.7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>277.77</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731440605.7176683</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731440605.7176683.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+          <t>./test_images/SBER1731440605.7176683.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>277.48</v>
       </c>
-      <c r="J21" t="n">
-        <v>277.48</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>277.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1500000000000341</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731440607.430241</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731440607.7496154</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440607.430241.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440607.7496154.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>128.74</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>128.9</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731440612.281979</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731440612.4734735</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440612.281979.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440612.4734735.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>128.91</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>129.03</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731440612.5881877</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731440612.983621</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440612.5881877.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440612.983621.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>128.88</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>128.93</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731440614.228809</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731440615.1543412</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440614.228809.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440615.1543412.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128.7</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.55</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731440616.2893183</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731440616.581169</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440616.2893183.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440616.581169.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>128.31</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>128.39</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731440616.9553227</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731440618.635872</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440616.9553227.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440618.635872.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>128.27</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>128.27</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1750,1510 +1997,1789 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731440619.4894507</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731440620.107989</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440619.4894507.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440620.107989.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.85</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>128</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731440622.7071636</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731440623.5643835</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440622.7071636.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440623.5643835.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.44</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.56</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731440623.923182</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731440624.5586464</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440623.923182.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440624.5586464.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.26</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.27</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731440624.6844966</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731440624.6844966.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731440624.6844966.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>127.39</v>
       </c>
-      <c r="J31" t="n">
-        <v>127.39</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>127.34</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731440625.861962</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731440625.9793577</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440625.861962.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440625.9793577.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6372.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6374</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731440626.0306172</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731440626.2601612</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440626.0306172.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440626.2601612.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6367</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6377.5</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>10.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731440633.0630476</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731440633.1770775</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440633.0630476.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440633.1770775.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6357.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>6364.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>7</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731440634.1106143</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731440637.0467868</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440634.1106143.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440637.0467868.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>6357</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>6356</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731440642.3099108</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731440642.8826842</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440642.3099108.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440642.8826842.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>6344</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>6342</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731440644.2421372</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731440644.448001</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440644.2421372.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440644.448001.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>494.2</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>494.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4000000000000341</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731440645.0912676</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731440645.1895962</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440645.0912676.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440645.1895962.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>498</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>497.25</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731440647.590978</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731440648.2595615</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440647.590978.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440648.2595615.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>498</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>497.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731440648.8169794</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731440648.8678749</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440648.8169794.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440648.8678749.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>494.55</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>494.65</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.09999999999996589</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731440654.8692777</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731440655.452399</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440654.8692777.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440655.452399.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>494.75</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>495.55</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731440658.4538968</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731440659.1428668</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440658.4538968.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440659.1428668.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>496.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>496</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731440665.5313177</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731440666.1032388</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440665.5313177.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440666.1032388.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>223.93</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>223.99</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731440669.8407137</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731440669.9677188</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440669.8407137.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440669.9677188.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>224.09</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>223.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731440670.36097</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731440671.7043893</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440670.36097.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440671.7043893.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>224.41</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>223.88</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.5300000000000011</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731440671.926667</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731440672.8001912</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440671.926667.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440672.8001912.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>224.29</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>223.72</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.5699999999999932</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731440673.3761115</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731440673.9523768</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440673.3761115.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440673.9523768.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>224.3</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>224.1</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731440674.5583205</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731440674.7228541</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440674.5583205.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440674.7228541.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>224.39</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>224.34</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.04999999999998295</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731440674.7744102</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731440674.931585</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440674.7744102.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440674.931585.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>224.4</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>224.25</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731440675.599303</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731440677.0114784</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440675.599303.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440677.0114784.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>224.98</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>225.01</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731440679.9073334</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731440680.358229</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440679.9073334.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440680.358229.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1029.4</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.199999999999818</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731440682.6576548</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731440682.7507348</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440682.6576548.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440682.7507348.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1042</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1041</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731440690.571154</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731440690.9198394</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440690.571154.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731440690.9198394.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1034.6</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1034.4</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731440703.630633</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731440704.2052903</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440703.630633.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440704.2052903.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>12.021</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>12.026</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.004999999999999005</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731440704.766484</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731440705.5595171</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440704.766484.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440705.5595171.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>12.053</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>12.051</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.002000000000000668</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731440706.850373</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731440707.7506254</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440706.850373.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440707.7506254.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>12.076</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>12.084</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.007999999999999119</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731440716.2333095</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731440716.6580064</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440716.2333095.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440716.6580064.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>125.14</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>125.08</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731440718.6563988</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731440719.555361</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440718.6563988.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440719.555361.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>125.92</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>125.92</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3261,383 +3787,455 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731440726.6366534</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731440726.9435828</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440726.6366534.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440726.9435828.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>125</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>125.1</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731440731.921526</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731440732.1488192</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440731.921526.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440732.1488192.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>125.02</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>125.04</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731440733.5820408</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731440733.847986</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440733.5820408.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440733.847986.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>162.3</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>162.56</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731440734.115569</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731440734.3653486</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440734.115569.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440734.3653486.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>163.48</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>163.96</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731440735.6433191</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731440735.8630219</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440735.6433191.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440735.8630219.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>164.42</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>164.36</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.05999999999997385</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731440745.6854048</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731440746.5243263</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440745.6854048.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440746.5243263.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>162.26</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>162.48</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731440747.5817704</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731440748.719737</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440747.5817704.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440748.719737.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>162.16</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>161.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.3599999999999852</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731440748.7356663</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731440748.7356663.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731440748.7356663.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>161.8</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>161.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3645,1487 +4243,1766 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731440750.3452077</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731440750.6608977</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440750.3452077.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440750.6608977.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.52</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.58</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731440752.6466851</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731440752.846698</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440752.6466851.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440752.846698.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>50.14</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>50.045</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731440765.4622996</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731440765.4622996.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731440765.4622996.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>49.985</v>
       </c>
-      <c r="J69" t="n">
-        <v>49.985</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731440767.3034565</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731440768.2187006</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440767.3034565.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440768.2187006.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1387.6</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1387.4</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731440768.7742405</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731440768.993296</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440768.7742405.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440768.993296.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1395</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1397</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731440783.488745</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731440783.488745.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+          <t>./test_images/CHMF1731440783.488745.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1391.4</v>
       </c>
-      <c r="J72" t="n">
-        <v>1391.4</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>1386.4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731440786.4463203</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731440788.4475784</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440786.4463203.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440788.4475784.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>58.87</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>58.89</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731440792.3661366</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731440792.7098143</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440792.3661366.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440792.7098143.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>58.67</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>58.74</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731440795.91556</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731440796.3039017</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440795.91556.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440796.3039017.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>58.94</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>58.92</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731440797.3194032</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731440801.3568594</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440797.3194032.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440801.3568594.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>58.95</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>58.87</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731440802.56604</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731440802.7986083</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440802.56604.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440802.7986083.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>59.04</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>59</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731440804.348127</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731440804.94417</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440804.348127.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440804.94417.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>99.53</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>99.16</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.3700000000000045</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731440817.2781837</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731440817.7559085</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440817.2781837.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440817.7559085.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>99.31</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731440837.1425905</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731440837.3161838</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440837.1425905.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440837.3161838.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>154.68</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>155.16</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731440844.4636471</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731440850.9185321</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440844.4636471.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440850.9185321.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>154.98</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>154.74</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731440851.7898388</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731440851.7898388.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+          <t>./test_images/SOFL1731440851.7898388.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>154.22</v>
       </c>
-      <c r="J82" t="n">
-        <v>154.22</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
+      <c r="L82" t="n">
+        <v>154.12</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731440856.825898</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731440857.4982255</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440856.825898.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440857.4982255.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.305</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.3043</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.0006999999999999784</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731440862.6541612</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731440865.9358342</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440862.6541612.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731440865.9358342.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.3035</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.306</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.002500000000000002</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731440865.9989119</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731440865.9989119.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+          <t>./test_images/MRKP1731440865.9989119.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.3058</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.3058</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>0.3061</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731440866.5827997</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731440866.8811655</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440866.5827997.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440866.8811655.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>19.94</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>20.006</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.06599999999999895</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731440867.3098643</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731440868.2588353</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440867.3098643.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440868.2588353.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>19.901</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>19.9</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.001000000000001222</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731440868.27579</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731440869.1401348</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440868.27579.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440869.1401348.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.9</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.95</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.05000000000000071</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731440873.056259</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731440873.4758902</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440873.056259.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440873.4758902.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.921</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.938</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.01699999999999946</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731440879.19521</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731440879.368595</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440879.19521.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440879.368595.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>19.823</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>19.855</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731440885.1591709</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731440885.4605713</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440885.1591709.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440885.4605713.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>19.801</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>19.829</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.02800000000000225</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731440892.3516083</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731440892.6786735</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440892.3516083.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440892.6786735.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>677.6</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>677.85</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731440894.3464012</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731440895.3895626</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440894.3464012.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440895.3895626.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>677.25</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>676.8</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731440902.5657122</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731440903.321511</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440902.5657122.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440903.321511.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>150.93</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>150.74</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731440910.5099342</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731440910.6051126</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440910.5099342.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440910.6051126.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>150.57</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>150.96</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.3900000000000148</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731440914.2537122</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731440914.508074</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440914.2537122.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440914.508074.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>150.8</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>151.01</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731440915.505567</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731440917.7010584</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440915.505567.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440917.7010584.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>150.42</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>150.86</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.4400000000000261</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -5139,7 +6016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5168,6 +6045,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5176,13 +6063,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.049999999999955</v>
+        <v>0.8999999999999204</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07499999999999675</v>
+        <v>0.0642857142857086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -5192,13 +6085,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5400000000000205</v>
+        <v>0.5900000000000176</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05400000000000205</v>
+        <v>0.05900000000000176</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -5216,6 +6115,12 @@
       <c r="D4" t="n">
         <v>0.2124999999999986</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5232,6 +6137,12 @@
       <c r="D5" t="n">
         <v>0.01533333333333312</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5248,6 +6159,12 @@
       <c r="D6" t="n">
         <v>0.4916666666666648</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5264,6 +6181,12 @@
       <c r="D7" t="n">
         <v>-0.05000000000000663</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5280,6 +6203,12 @@
       <c r="D8" t="n">
         <v>0.03799999999999955</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5296,6 +6225,12 @@
       <c r="D9" t="n">
         <v>0.1440000000000055</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5312,6 +6247,12 @@
       <c r="D10" t="n">
         <v>3.2</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5328,6 +6269,12 @@
       <c r="D11" t="n">
         <v>0.2125000000000057</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5344,6 +6291,12 @@
       <c r="D12" t="n">
         <v>0.01500000000000057</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5352,13 +6305,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.003199999999999981</v>
+        <v>-0.002900000000000014</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.00106666666666666</v>
+        <v>-0.0009666666666666712</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.9500000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="14">
@@ -5368,13 +6327,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.154999999999994</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05166666666666467</v>
+        <v>0.05999999999999753</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -5392,6 +6357,12 @@
       <c r="D15" t="n">
         <v>-0.1333333333332121</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5408,6 +6379,12 @@
       <c r="D16" t="n">
         <v>-0.003666666666665819</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5416,13 +6393,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.199999999999818</v>
+        <v>-7.199999999999818</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7333333333332727</v>
+        <v>-2.39999999999994</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="18">
@@ -5432,13 +6415,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08000000000000303</v>
+        <v>0.0466666666666716</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="19">
@@ -5456,6 +6445,12 @@
       <c r="D19" t="n">
         <v>-0.1000000000000227</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.02999999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5472,6 +6467,12 @@
       <c r="D20" t="n">
         <v>-0.1400000000000006</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5486,6 +6487,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
